--- a/ExcelData/HospitalsList.xlsx
+++ b/ExcelData/HospitalsList.xlsx
@@ -68,9 +68,6 @@
     <t>Brains Super Speciality Hospital</t>
   </si>
   <si>
-    <t>Pathway Hospitals</t>
-  </si>
-  <si>
     <t>Sai Thunga Hospitals</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>SRV Agadi Hospital</t>
+  </si>
+  <si>
+    <t>Apollo Hospitals</t>
   </si>
 </sst>
 </file>
@@ -252,12 +252,12 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">

--- a/ExcelData/HospitalsList.xlsx
+++ b/ExcelData/HospitalsList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Manipal Hospital Varthur Road (formerly Columbia Asia Hospital)</t>
   </si>
@@ -20,76 +20,109 @@
     <t>Manipal Hospitals</t>
   </si>
   <si>
+    <t>Manipal Hospital</t>
+  </si>
+  <si>
+    <t>Sagar Hospitals</t>
+  </si>
+  <si>
+    <t>Gleneagles Hospitals</t>
+  </si>
+  <si>
+    <t>Apollo Hospital</t>
+  </si>
+  <si>
+    <t>Manipal Hospitals Old Airport Road</t>
+  </si>
+  <si>
+    <t>Manipal Hospital, Millers Road ( Vikram Hospitals )</t>
+  </si>
+  <si>
+    <t>Manipal Hospital Malleshwaram</t>
+  </si>
+  <si>
+    <t>Cloudnine Hospital - Jayanagar</t>
+  </si>
+  <si>
+    <t>SPARSH Hospital</t>
+  </si>
+  <si>
+    <t>Manipal Hospital Whitefield</t>
+  </si>
+  <si>
+    <t>OPTIMA Super Speciality Hospital</t>
+  </si>
+  <si>
+    <t>Arka Anugraha Hospital</t>
+  </si>
+  <si>
+    <t>Brains Super Speciality Hospital</t>
+  </si>
+  <si>
+    <t>Sai Thunga Hospitals</t>
+  </si>
+  <si>
+    <t>Sparsh Hospital</t>
+  </si>
+  <si>
+    <t>Manipal Clinic Indiranagar</t>
+  </si>
+  <si>
+    <t>Nano Hospitals</t>
+  </si>
+  <si>
+    <t>Aster CMI Hospital</t>
+  </si>
+  <si>
+    <t>Greenview Medical Center</t>
+  </si>
+  <si>
+    <t>The Bangalore Hospital</t>
+  </si>
+  <si>
     <t>Trilife Hospital</t>
   </si>
   <si>
-    <t>Manipal Hospital</t>
-  </si>
-  <si>
-    <t>Apollo Speciality Hospitals</t>
-  </si>
-  <si>
-    <t>Sagar Hospitals</t>
-  </si>
-  <si>
-    <t>Gleneagles Hospitals</t>
-  </si>
-  <si>
-    <t>Apollo Hospital</t>
-  </si>
-  <si>
-    <t>Manipal Hospitals Old Airport Road</t>
-  </si>
-  <si>
-    <t>Manipal Hospital, Millers Road ( Vikram Hospitals )</t>
-  </si>
-  <si>
-    <t>Manipal Hospital Malleshwaram</t>
-  </si>
-  <si>
-    <t>Cloudnine Hospital - Jayanagar</t>
-  </si>
-  <si>
-    <t>SPARSH Hospital</t>
-  </si>
-  <si>
-    <t>Manipal Hospital Whitefield</t>
-  </si>
-  <si>
-    <t>OPTIMA Super Speciality Hospital</t>
-  </si>
-  <si>
-    <t>Sparsh Hospital</t>
-  </si>
-  <si>
-    <t>Arka Anugraha Hospital</t>
-  </si>
-  <si>
-    <t>Brains Super Speciality Hospital</t>
-  </si>
-  <si>
-    <t>Sai Thunga Hospitals</t>
-  </si>
-  <si>
-    <t>Manipal Clinic Indiranagar</t>
-  </si>
-  <si>
-    <t>Nano Hospitals</t>
-  </si>
-  <si>
-    <t>Aster CMI Hospital</t>
-  </si>
-  <si>
-    <t>Greenview Medical Center</t>
-  </si>
-  <si>
-    <t>The Bangalore Hospital</t>
-  </si>
-  <si>
     <t>SRV Agadi Hospital</t>
   </si>
   <si>
     <t>Apollo Hospitals</t>
+  </si>
+  <si>
+    <t>Trustwell Hospitals</t>
+  </si>
+  <si>
+    <t>Cura Hospitals</t>
+  </si>
+  <si>
+    <t>SPANDANA HEART AND SUPER SPECIALITY HOSPITAL</t>
+  </si>
+  <si>
+    <t>East Point Hospital</t>
+  </si>
+  <si>
+    <t>Sakra IKOC Multispeciality Hospital</t>
+  </si>
+  <si>
+    <t>Kauvery Hospital</t>
+  </si>
+  <si>
+    <t>Columbiaa Hospital</t>
+  </si>
+  <si>
+    <t>Medicover Hospitals - Bangalore</t>
+  </si>
+  <si>
+    <t>Bangalore Hospital</t>
+  </si>
+  <si>
+    <t>DHEE Hospitals</t>
+  </si>
+  <si>
+    <t>Aster Whitefield Hospital</t>
+  </si>
+  <si>
+    <t>Vasavi Hospital</t>
   </si>
 </sst>
 </file>
@@ -134,7 +167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -157,7 +190,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -207,27 +240,27 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -252,42 +285,92 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
